--- a/data/backup/0808/raw_sensor_data.xlsx
+++ b/data/backup/0808/raw_sensor_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyd/Documents/Research/SholderSensor/ShoulderSensor/data/backup/0808/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{592567F7-2276-E444-A740-908D5F48EC21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A245A4E0-3CBA-9644-B337-E073AFC79985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="26" activeTab="34" xr2:uid="{61037002-67D8-914B-B3F8-F3BEBF7210C9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" firstSheet="10" activeTab="11" xr2:uid="{61037002-67D8-914B-B3F8-F3BEBF7210C9}"/>
   </bookViews>
   <sheets>
     <sheet name="jinzhi_1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="houshen_1" sheetId="9" r:id="rId9"/>
     <sheet name="houshen_2" sheetId="10" r:id="rId10"/>
     <sheet name="houshen_3" sheetId="11" r:id="rId11"/>
-    <sheet name="waizhanShangju_1" sheetId="12" r:id="rId12"/>
+    <sheet name="waizhanShangju_1" sheetId="36" r:id="rId12"/>
     <sheet name="waizhanShangju_2" sheetId="13" r:id="rId13"/>
     <sheet name="waizhanShangju_3" sheetId="14" r:id="rId14"/>
     <sheet name="waizhanShuiping_1" sheetId="15" r:id="rId15"/>
@@ -15713,817 +15713,817 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{766571E3-D61A-2348-8B11-5A596C8B7A6B}">
-  <dimension ref="V1:V161"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28382A1F-D96F-6445-BFE3-30865A4F78E9}">
+  <dimension ref="A1:A161"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AB23" sqref="AB23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="22:22">
-      <c r="V1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
         <v>1999</v>
       </c>
     </row>
-    <row r="2" spans="22:22">
-      <c r="V2" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="22:22">
-      <c r="V3" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>2001</v>
       </c>
     </row>
-    <row r="4" spans="22:22">
-      <c r="V4" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
         <v>2002</v>
       </c>
     </row>
-    <row r="5" spans="22:22">
-      <c r="V5" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
         <v>2003</v>
       </c>
     </row>
-    <row r="6" spans="22:22">
-      <c r="V6" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
         <v>2003</v>
       </c>
     </row>
-    <row r="7" spans="22:22">
-      <c r="V7" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
         <v>2004</v>
       </c>
     </row>
-    <row r="8" spans="22:22">
-      <c r="V8" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
         <v>2005</v>
       </c>
     </row>
-    <row r="9" spans="22:22">
-      <c r="V9" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
         <v>2006</v>
       </c>
     </row>
-    <row r="10" spans="22:22">
-      <c r="V10" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
         <v>2007</v>
       </c>
     </row>
-    <row r="11" spans="22:22">
-      <c r="V11" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
         <v>2008</v>
       </c>
     </row>
-    <row r="12" spans="22:22">
-      <c r="V12" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
         <v>2008</v>
       </c>
     </row>
-    <row r="13" spans="22:22">
-      <c r="V13" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
         <v>2009</v>
       </c>
     </row>
-    <row r="14" spans="22:22">
-      <c r="V14" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
         <v>2010</v>
       </c>
     </row>
-    <row r="15" spans="22:22">
-      <c r="V15" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
         <v>2011</v>
       </c>
     </row>
-    <row r="16" spans="22:22">
-      <c r="V16" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
         <v>2012</v>
       </c>
     </row>
-    <row r="17" spans="22:22">
-      <c r="V17" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
         <v>2013</v>
       </c>
     </row>
-    <row r="18" spans="22:22">
-      <c r="V18" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
         <v>2014</v>
       </c>
     </row>
-    <row r="19" spans="22:22">
-      <c r="V19" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
         <v>2015</v>
       </c>
     </row>
-    <row r="20" spans="22:22">
-      <c r="V20" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
         <v>2016</v>
       </c>
     </row>
-    <row r="21" spans="22:22">
-      <c r="V21" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
         <v>2017</v>
       </c>
     </row>
-    <row r="22" spans="22:22">
-      <c r="V22" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
         <v>2018</v>
       </c>
     </row>
-    <row r="23" spans="22:22">
-      <c r="V23" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
         <v>2019</v>
       </c>
     </row>
-    <row r="24" spans="22:22">
-      <c r="V24" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
         <v>2020</v>
       </c>
     </row>
-    <row r="25" spans="22:22">
-      <c r="V25" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
         <v>2021</v>
       </c>
     </row>
-    <row r="26" spans="22:22">
-      <c r="V26" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
         <v>2022</v>
       </c>
     </row>
-    <row r="27" spans="22:22">
-      <c r="V27" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
         <v>2023</v>
       </c>
     </row>
-    <row r="28" spans="22:22">
-      <c r="V28" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
         <v>2024</v>
       </c>
     </row>
-    <row r="29" spans="22:22">
-      <c r="V29" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
         <v>2025</v>
       </c>
     </row>
-    <row r="30" spans="22:22">
-      <c r="V30" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
         <v>2026</v>
       </c>
     </row>
-    <row r="31" spans="22:22">
-      <c r="V31" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
         <v>2027</v>
       </c>
     </row>
-    <row r="32" spans="22:22">
-      <c r="V32" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
         <v>2028</v>
       </c>
     </row>
-    <row r="33" spans="22:22">
-      <c r="V33" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
         <v>2029</v>
       </c>
     </row>
-    <row r="34" spans="22:22">
-      <c r="V34" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
         <v>2030</v>
       </c>
     </row>
-    <row r="35" spans="22:22">
-      <c r="V35" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
         <v>2031</v>
       </c>
     </row>
-    <row r="36" spans="22:22">
-      <c r="V36" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
         <v>2032</v>
       </c>
     </row>
-    <row r="37" spans="22:22">
-      <c r="V37" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
         <v>2033</v>
       </c>
     </row>
-    <row r="38" spans="22:22">
-      <c r="V38" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
         <v>2034</v>
       </c>
     </row>
-    <row r="39" spans="22:22">
-      <c r="V39" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
         <v>2035</v>
       </c>
     </row>
-    <row r="40" spans="22:22">
-      <c r="V40" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
         <v>2036</v>
       </c>
     </row>
-    <row r="41" spans="22:22">
-      <c r="V41" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="42" spans="22:22">
-      <c r="V42" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
         <v>2038</v>
       </c>
     </row>
-    <row r="43" spans="22:22">
-      <c r="V43" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
         <v>2039</v>
       </c>
     </row>
-    <row r="44" spans="22:22">
-      <c r="V44" t="s">
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
         <v>2040</v>
       </c>
     </row>
-    <row r="45" spans="22:22">
-      <c r="V45" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
         <v>2041</v>
       </c>
     </row>
-    <row r="46" spans="22:22">
-      <c r="V46" t="s">
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
         <v>2042</v>
       </c>
     </row>
-    <row r="47" spans="22:22">
-      <c r="V47" t="s">
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
         <v>2043</v>
       </c>
     </row>
-    <row r="48" spans="22:22">
-      <c r="V48" t="s">
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
         <v>2044</v>
       </c>
     </row>
-    <row r="49" spans="22:22">
-      <c r="V49" t="s">
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
         <v>2045</v>
       </c>
     </row>
-    <row r="50" spans="22:22">
-      <c r="V50" t="s">
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
         <v>2046</v>
       </c>
     </row>
-    <row r="51" spans="22:22">
-      <c r="V51" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
         <v>2047</v>
       </c>
     </row>
-    <row r="52" spans="22:22">
-      <c r="V52" t="s">
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
         <v>2048</v>
       </c>
     </row>
-    <row r="53" spans="22:22">
-      <c r="V53" t="s">
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
         <v>2049</v>
       </c>
     </row>
-    <row r="54" spans="22:22">
-      <c r="V54" t="s">
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
         <v>2050</v>
       </c>
     </row>
-    <row r="55" spans="22:22">
-      <c r="V55" t="s">
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
         <v>2051</v>
       </c>
     </row>
-    <row r="56" spans="22:22">
-      <c r="V56" t="s">
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
         <v>2052</v>
       </c>
     </row>
-    <row r="57" spans="22:22">
-      <c r="V57" t="s">
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
         <v>2053</v>
       </c>
     </row>
-    <row r="58" spans="22:22">
-      <c r="V58" t="s">
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
         <v>2054</v>
       </c>
     </row>
-    <row r="59" spans="22:22">
-      <c r="V59" t="s">
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
         <v>2055</v>
       </c>
     </row>
-    <row r="60" spans="22:22">
-      <c r="V60" t="s">
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
         <v>2056</v>
       </c>
     </row>
-    <row r="61" spans="22:22">
-      <c r="V61" t="s">
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
         <v>2057</v>
       </c>
     </row>
-    <row r="62" spans="22:22">
-      <c r="V62" t="s">
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
         <v>2058</v>
       </c>
     </row>
-    <row r="63" spans="22:22">
-      <c r="V63" t="s">
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
         <v>2059</v>
       </c>
     </row>
-    <row r="64" spans="22:22">
-      <c r="V64" t="s">
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
         <v>2060</v>
       </c>
     </row>
-    <row r="65" spans="22:22">
-      <c r="V65" t="s">
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
         <v>2061</v>
       </c>
     </row>
-    <row r="66" spans="22:22">
-      <c r="V66" t="s">
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
         <v>2062</v>
       </c>
     </row>
-    <row r="67" spans="22:22">
-      <c r="V67" t="s">
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
         <v>2063</v>
       </c>
     </row>
-    <row r="68" spans="22:22">
-      <c r="V68" t="s">
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
         <v>2064</v>
       </c>
     </row>
-    <row r="69" spans="22:22">
-      <c r="V69" t="s">
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
         <v>2065</v>
       </c>
     </row>
-    <row r="70" spans="22:22">
-      <c r="V70" t="s">
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
         <v>2066</v>
       </c>
     </row>
-    <row r="71" spans="22:22">
-      <c r="V71" t="s">
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
         <v>2067</v>
       </c>
     </row>
-    <row r="72" spans="22:22">
-      <c r="V72" t="s">
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
         <v>2068</v>
       </c>
     </row>
-    <row r="73" spans="22:22">
-      <c r="V73" t="s">
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
         <v>2069</v>
       </c>
     </row>
-    <row r="74" spans="22:22">
-      <c r="V74" t="s">
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
         <v>2070</v>
       </c>
     </row>
-    <row r="75" spans="22:22">
-      <c r="V75" t="s">
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
         <v>2071</v>
       </c>
     </row>
-    <row r="76" spans="22:22">
-      <c r="V76" t="s">
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
         <v>2072</v>
       </c>
     </row>
-    <row r="77" spans="22:22">
-      <c r="V77" t="s">
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
         <v>2073</v>
       </c>
     </row>
-    <row r="78" spans="22:22">
-      <c r="V78" t="s">
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
         <v>2073</v>
       </c>
     </row>
-    <row r="79" spans="22:22">
-      <c r="V79" t="s">
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
         <v>2074</v>
       </c>
     </row>
-    <row r="80" spans="22:22">
-      <c r="V80" t="s">
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
         <v>2075</v>
       </c>
     </row>
-    <row r="81" spans="22:22">
-      <c r="V81" t="s">
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
         <v>2076</v>
       </c>
     </row>
-    <row r="82" spans="22:22">
-      <c r="V82" t="s">
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
         <v>2077</v>
       </c>
     </row>
-    <row r="83" spans="22:22">
-      <c r="V83" t="s">
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
         <v>2078</v>
       </c>
     </row>
-    <row r="84" spans="22:22">
-      <c r="V84" t="s">
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
         <v>2079</v>
       </c>
     </row>
-    <row r="85" spans="22:22">
-      <c r="V85" t="s">
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
         <v>2080</v>
       </c>
     </row>
-    <row r="86" spans="22:22">
-      <c r="V86" t="s">
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
         <v>2081</v>
       </c>
     </row>
-    <row r="87" spans="22:22">
-      <c r="V87" t="s">
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
         <v>2082</v>
       </c>
     </row>
-    <row r="88" spans="22:22">
-      <c r="V88" t="s">
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
         <v>2083</v>
       </c>
     </row>
-    <row r="89" spans="22:22">
-      <c r="V89" t="s">
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
         <v>2084</v>
       </c>
     </row>
-    <row r="90" spans="22:22">
-      <c r="V90" t="s">
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
         <v>2085</v>
       </c>
     </row>
-    <row r="91" spans="22:22">
-      <c r="V91" t="s">
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
         <v>2086</v>
       </c>
     </row>
-    <row r="92" spans="22:22">
-      <c r="V92" t="s">
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
         <v>2087</v>
       </c>
     </row>
-    <row r="93" spans="22:22">
-      <c r="V93" t="s">
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
         <v>2088</v>
       </c>
     </row>
-    <row r="94" spans="22:22">
-      <c r="V94" t="s">
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
         <v>2089</v>
       </c>
     </row>
-    <row r="95" spans="22:22">
-      <c r="V95" t="s">
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
         <v>2090</v>
       </c>
     </row>
-    <row r="96" spans="22:22">
-      <c r="V96" t="s">
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
         <v>2091</v>
       </c>
     </row>
-    <row r="97" spans="22:22">
-      <c r="V97" t="s">
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
         <v>2092</v>
       </c>
     </row>
-    <row r="98" spans="22:22">
-      <c r="V98" t="s">
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
         <v>2093</v>
       </c>
     </row>
-    <row r="99" spans="22:22">
-      <c r="V99" t="s">
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
         <v>2094</v>
       </c>
     </row>
-    <row r="100" spans="22:22">
-      <c r="V100" t="s">
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
         <v>2095</v>
       </c>
     </row>
-    <row r="101" spans="22:22">
-      <c r="V101" t="s">
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
         <v>2096</v>
       </c>
     </row>
-    <row r="102" spans="22:22">
-      <c r="V102" t="s">
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
         <v>2097</v>
       </c>
     </row>
-    <row r="103" spans="22:22">
-      <c r="V103" t="s">
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
         <v>2098</v>
       </c>
     </row>
-    <row r="104" spans="22:22">
-      <c r="V104" t="s">
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
         <v>2099</v>
       </c>
     </row>
-    <row r="105" spans="22:22">
-      <c r="V105" t="s">
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
         <v>2100</v>
       </c>
     </row>
-    <row r="106" spans="22:22">
-      <c r="V106" t="s">
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
         <v>2101</v>
       </c>
     </row>
-    <row r="107" spans="22:22">
-      <c r="V107" t="s">
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
         <v>2102</v>
       </c>
     </row>
-    <row r="108" spans="22:22">
-      <c r="V108" t="s">
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
         <v>2103</v>
       </c>
     </row>
-    <row r="109" spans="22:22">
-      <c r="V109" t="s">
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
         <v>2104</v>
       </c>
     </row>
-    <row r="110" spans="22:22">
-      <c r="V110" t="s">
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
         <v>2105</v>
       </c>
     </row>
-    <row r="111" spans="22:22">
-      <c r="V111" t="s">
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
         <v>2106</v>
       </c>
     </row>
-    <row r="112" spans="22:22">
-      <c r="V112" t="s">
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
         <v>2107</v>
       </c>
     </row>
-    <row r="113" spans="22:22">
-      <c r="V113" t="s">
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
         <v>2108</v>
       </c>
     </row>
-    <row r="114" spans="22:22">
-      <c r="V114" t="s">
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
         <v>2109</v>
       </c>
     </row>
-    <row r="115" spans="22:22">
-      <c r="V115" t="s">
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
         <v>2110</v>
       </c>
     </row>
-    <row r="116" spans="22:22">
-      <c r="V116" t="s">
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
         <v>2111</v>
       </c>
     </row>
-    <row r="117" spans="22:22">
-      <c r="V117" t="s">
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
         <v>2112</v>
       </c>
     </row>
-    <row r="118" spans="22:22">
-      <c r="V118" t="s">
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
         <v>2113</v>
       </c>
     </row>
-    <row r="119" spans="22:22">
-      <c r="V119" t="s">
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
         <v>2114</v>
       </c>
     </row>
-    <row r="120" spans="22:22">
-      <c r="V120" t="s">
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
         <v>2115</v>
       </c>
     </row>
-    <row r="121" spans="22:22">
-      <c r="V121" t="s">
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
         <v>2116</v>
       </c>
     </row>
-    <row r="122" spans="22:22">
-      <c r="V122" t="s">
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
         <v>2117</v>
       </c>
     </row>
-    <row r="123" spans="22:22">
-      <c r="V123" t="s">
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
         <v>2118</v>
       </c>
     </row>
-    <row r="124" spans="22:22">
-      <c r="V124" t="s">
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
         <v>2119</v>
       </c>
     </row>
-    <row r="125" spans="22:22">
-      <c r="V125" t="s">
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
         <v>2120</v>
       </c>
     </row>
-    <row r="126" spans="22:22">
-      <c r="V126" t="s">
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
         <v>2121</v>
       </c>
     </row>
-    <row r="127" spans="22:22">
-      <c r="V127" t="s">
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
         <v>2122</v>
       </c>
     </row>
-    <row r="128" spans="22:22">
-      <c r="V128" t="s">
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
         <v>2123</v>
       </c>
     </row>
-    <row r="129" spans="22:22">
-      <c r="V129" t="s">
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
         <v>2124</v>
       </c>
     </row>
-    <row r="130" spans="22:22">
-      <c r="V130" t="s">
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
         <v>2125</v>
       </c>
     </row>
-    <row r="131" spans="22:22">
-      <c r="V131" t="s">
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
         <v>2126</v>
       </c>
     </row>
-    <row r="132" spans="22:22">
-      <c r="V132" t="s">
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
         <v>2127</v>
       </c>
     </row>
-    <row r="133" spans="22:22">
-      <c r="V133" t="s">
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
         <v>2128</v>
       </c>
     </row>
-    <row r="134" spans="22:22">
-      <c r="V134" t="s">
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
         <v>2129</v>
       </c>
     </row>
-    <row r="135" spans="22:22">
-      <c r="V135" t="s">
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
         <v>2130</v>
       </c>
     </row>
-    <row r="136" spans="22:22">
-      <c r="V136" t="s">
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
         <v>2131</v>
       </c>
     </row>
-    <row r="137" spans="22:22">
-      <c r="V137" t="s">
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
         <v>2132</v>
       </c>
     </row>
-    <row r="138" spans="22:22">
-      <c r="V138" t="s">
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
         <v>2133</v>
       </c>
     </row>
-    <row r="139" spans="22:22">
-      <c r="V139" t="s">
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
         <v>2134</v>
       </c>
     </row>
-    <row r="140" spans="22:22">
-      <c r="V140" t="s">
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
         <v>2135</v>
       </c>
     </row>
-    <row r="141" spans="22:22">
-      <c r="V141" t="s">
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
         <v>2136</v>
       </c>
     </row>
-    <row r="142" spans="22:22">
-      <c r="V142" t="s">
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
         <v>2137</v>
       </c>
     </row>
-    <row r="143" spans="22:22">
-      <c r="V143" t="s">
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
         <v>2138</v>
       </c>
     </row>
-    <row r="144" spans="22:22">
-      <c r="V144" t="s">
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
         <v>2139</v>
       </c>
     </row>
-    <row r="145" spans="22:22">
-      <c r="V145" t="s">
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
         <v>2138</v>
       </c>
     </row>
-    <row r="146" spans="22:22">
-      <c r="V146" t="s">
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
         <v>2140</v>
       </c>
     </row>
-    <row r="147" spans="22:22">
-      <c r="V147" t="s">
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
         <v>2141</v>
       </c>
     </row>
-    <row r="148" spans="22:22">
-      <c r="V148" t="s">
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
         <v>2142</v>
       </c>
     </row>
-    <row r="149" spans="22:22">
-      <c r="V149" t="s">
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
         <v>2143</v>
       </c>
     </row>
-    <row r="150" spans="22:22">
-      <c r="V150" t="s">
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
         <v>2144</v>
       </c>
     </row>
-    <row r="151" spans="22:22">
-      <c r="V151" t="s">
+    <row r="151" spans="1:1">
+      <c r="A151" t="s">
         <v>2145</v>
       </c>
     </row>
-    <row r="152" spans="22:22">
-      <c r="V152" t="s">
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
         <v>2146</v>
       </c>
     </row>
-    <row r="153" spans="22:22">
-      <c r="V153" t="s">
+    <row r="153" spans="1:1">
+      <c r="A153" t="s">
         <v>2146</v>
       </c>
     </row>
-    <row r="154" spans="22:22">
-      <c r="V154" t="s">
+    <row r="154" spans="1:1">
+      <c r="A154" t="s">
         <v>2147</v>
       </c>
     </row>
-    <row r="155" spans="22:22">
-      <c r="V155" t="s">
+    <row r="155" spans="1:1">
+      <c r="A155" t="s">
         <v>2148</v>
       </c>
     </row>
-    <row r="156" spans="22:22">
-      <c r="V156" t="s">
+    <row r="156" spans="1:1">
+      <c r="A156" t="s">
         <v>2149</v>
       </c>
     </row>
-    <row r="157" spans="22:22">
-      <c r="V157" t="s">
+    <row r="157" spans="1:1">
+      <c r="A157" t="s">
         <v>2150</v>
       </c>
     </row>
-    <row r="158" spans="22:22">
-      <c r="V158" t="s">
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
         <v>2150</v>
       </c>
     </row>
-    <row r="159" spans="22:22">
-      <c r="V159" t="s">
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
         <v>2150</v>
       </c>
     </row>
-    <row r="160" spans="22:22">
-      <c r="V160" t="s">
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
         <v>2151</v>
       </c>
     </row>
-    <row r="161" spans="22:22">
-      <c r="V161" t="s">
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
         <v>2148</v>
       </c>
     </row>
@@ -30341,7 +30341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2206B9-B376-534C-804A-CBC4254C22F3}">
   <dimension ref="A1:A77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
